--- a/biology/Médecine/Jean-Baptiste_Baillière/Jean-Baptiste_Baillière.xlsx
+++ b/biology/Médecine/Jean-Baptiste_Baillière/Jean-Baptiste_Baillière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Bailli%C3%A8re</t>
+          <t>Jean-Baptiste_Baillière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Marie Baillière, né à Beauvais (Oise) le 20 novembre 1797 (30 brumaire an VI) et mort à Paris le 8 novembre 1885, est un éditeur et libraire français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Bailli%C3%A8re</t>
+          <t>Jean-Baptiste_Baillière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille de drapiers très anciennement installée à Beauvais, Jean-Baptiste Baillière débute en librairie le 3 juin 1812, comme commis chez Méquignon l'aîné, libraire de la Faculté de médecine. En 1818, il ouvre une petite boutique, au 14 rue de l'École-de-Médecine. En 1824, il épouse la fille de M. Ratier, négociant en nouveautés. En 1828, en secondes noces, il épouse Marie Georgette Meaux Saint-Marc. 
-Son frère, Germer-Jules Baillière (1807-1859), fonde en 1829 sa propre librairie médicale au 17, rue de l’École-de-Médecine, en rachetant le fonds de la veuve Auger, chez laquelle il fut commis. Son fils, Gustave-Germer Baillière (1837-1905), fonde les éditions Germer-Baillière, qui n'auront aucun lien. Cette maison fusionnera avec Félix Alcan en 1877[1].
+Son frère, Germer-Jules Baillière (1807-1859), fonde en 1829 sa propre librairie médicale au 17, rue de l’École-de-Médecine, en rachetant le fonds de la veuve Auger, chez laquelle il fut commis. Son fils, Gustave-Germer Baillière (1837-1905), fonde les éditions Germer-Baillière, qui n'auront aucun lien. Cette maison fusionnera avec Félix Alcan en 1877.
 En 1831, Jean-Baptiste Baillière ouvre sa première succursale internationale à Londres et y nomme l'un de ses frères à la direction. Cette filiale devint la librairie du British Museum. D'autres établissements furent ouverts à New York puis Melbourne et Madrid par ses neveux.
-En 1847 président du comité d'organisation, il co-fonde le Cercle de la librairie, de l’imprimerie, de la papeterie, du commerce de la musique et des estampes, et de toutes les industries qui concourent à la publication des œuvres de la littérature, des sciences et des arts [2].
+En 1847 président du comité d'organisation, il co-fonde le Cercle de la librairie, de l’imprimerie, de la papeterie, du commerce de la musique et des estampes, et de toutes les industries qui concourent à la publication des œuvres de la littérature, des sciences et des arts .
 De 1827 à 1872, Jean-Baptiste Baillière est l'éditeur officiel de l'Académie nationale de médecine.
 Le 1er janvier 1850, il s'installe au 19 rue Hautefeuille, et jusqu'en 1864, il est membre du Conseil d'escompte de la Banque de France au IXe Siège. C'est là qu'il est mort, le 8 novembre 1885, à l'âge de 88 ans, ayant appartenu à la librairie soit comme commis soit comme patron.
 La famille Baillière fut l'une des dynasties éditoriales les plus importantes du XIXe siècle : une boutique-bureau exista longtemps, située 10 rue Thénard.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Bailli%C3%A8re</t>
+          <t>Jean-Baptiste_Baillière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +562,15 @@
           <t>Une dynastie d'éditeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En 1819, Jean-Baptiste Baillière publie le premier livre qui porte sa marque : Médecine légale, par Lecieux et Renard.
 Le 23 septembre 1858, Marie Pauline Baillière, âgée de dix-neuf ans, sa fille, épouse Auguste Voisin, neveu du psychiatre Félix Voisin.
-En 1863, il associe son fils Henri à ses affaires et fonde J.B. Baillière et fils. En 1877, Félix Alcan rejoint la Librairie philosophique et scientifique Germer-Baillière, fondée en 1828. En 1885, Albert, un autre fils de Baillière, entre dans la société[3].
-Henri Baillière meurt en 1905, l'affaire est reprise par son fils, Émile Jean-Baptiste Baillière (mort en 1920), puis par Georges Baillière, lequel fut président du Cercle de la librairie entre 1929 et 1932 ; il meurt en octobre 1950[3].
+En 1863, il associe son fils Henri à ses affaires et fonde J.B. Baillière et fils. En 1877, Félix Alcan rejoint la Librairie philosophique et scientifique Germer-Baillière, fondée en 1828. En 1885, Albert, un autre fils de Baillière, entre dans la société.
+Henri Baillière meurt en 1905, l'affaire est reprise par son fils, Émile Jean-Baptiste Baillière (mort en 1920), puis par Georges Baillière, lequel fut président du Cercle de la librairie entre 1929 et 1932 ; il meurt en octobre 1950.
 Les éditions Baillière ont longtemps édité l'une des plus célèbres revues médicales françaises, La Revue du praticien, créée en 1951.
 </t>
         </is>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Bailli%C3%A8re</t>
+          <t>Jean-Baptiste_Baillière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Extrait du catalogue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traité des maladies des enfans nouveau-nés et à la mamelle, de Charles-Michel Billard,  imprimerie de H. Balzac, Paris et Londres, 1828
 Traité des maladies mentales considérées sous le rapport médical, hygiénique et médico-légal, d’Étienne Esquirol, 1838
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Bailli%C3%A8re</t>
+          <t>Jean-Baptiste_Baillière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Une rue porte son nom à Beauvais.
 Une plaque commémorative sur l'immeuble du 19 rue Hautefeuille Paris 6e indique que « Jean-Baptiste Baillière a vécu et est mort dans cette maison. Libraire et éditeur, il a diffusé la médecine française à travers le monde ».</t>
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Bailli%C3%A8re</t>
+          <t>Jean-Baptiste_Baillière</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,9 +671,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur en 1872[4]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur en 1872</t>
         </is>
       </c>
     </row>
@@ -663,7 +685,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jean-Baptiste_Bailli%C3%A8re</t>
+          <t>Jean-Baptiste_Baillière</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -681,7 +703,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La Crise du livre par son fils Henri Baillière, 1904
 Jean Tulard, Dictionnaire du Second Empire, Fayard, Paris, 1995
